--- a/artfynd/A 41927-2019.xlsx
+++ b/artfynd/A 41927-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112390653</v>
+        <v>112390694</v>
       </c>
       <c r="B2" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508942</v>
+        <v>508632</v>
       </c>
       <c r="R2" t="n">
-        <v>6784419</v>
+        <v>6784369</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
         <v>112390674</v>
       </c>
       <c r="B3" t="n">
-        <v>88166</v>
+        <v>88180</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112390694</v>
+        <v>112390653</v>
       </c>
       <c r="B4" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508632</v>
+        <v>508942</v>
       </c>
       <c r="R4" t="n">
-        <v>6784369</v>
+        <v>6784419</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>

--- a/artfynd/A 41927-2019.xlsx
+++ b/artfynd/A 41927-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112390694</v>
+        <v>112390674</v>
       </c>
       <c r="B2" t="n">
-        <v>90806</v>
+        <v>88180</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,29 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -723,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508632</v>
+        <v>508933</v>
       </c>
       <c r="R2" t="n">
-        <v>6784369</v>
+        <v>6784419</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +799,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112390674</v>
+        <v>112390694</v>
       </c>
       <c r="B3" t="n">
-        <v>88180</v>
+        <v>90806</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,37 +811,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508933</v>
+        <v>508632</v>
       </c>
       <c r="R3" t="n">
-        <v>6784419</v>
+        <v>6784369</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
